--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F818B67-31CE-4199-9400-531C3545272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BFB3F3-D844-4CB6-AA8D-A42F00D9AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
   <si>
     <t>type</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>d_code_id</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -383,10 +380,22 @@
     <t>English</t>
   </si>
   <si>
-    <t>ng_lf_pretas_202309_3_resultat_fts</t>
-  </si>
-  <si>
-    <t>(Sept 2023) - 3. Nigeria - Pre TAS LF FTS Results Form</t>
+    <t>(Oct 2023) - 3. Nigeria - Pre TAS LF FTS Results Form V2</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202309_3_resultat_fts_v2</t>
+  </si>
+  <si>
+    <t>d_code_id2</t>
+  </si>
+  <si>
+    <t>Select the user ID</t>
+  </si>
+  <si>
+    <t>Please capture the unique the barcode</t>
+  </si>
+  <si>
+    <t>barcode</t>
   </si>
 </sst>
 </file>
@@ -831,13 +840,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1023,7 +1032,7 @@
       <c r="L6" s="21"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="31.5">
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="14"/>
@@ -1048,69 +1057,67 @@
     </row>
     <row r="8" spans="1:13" s="3" customFormat="1">
       <c r="A8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+        <v>119</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="31.5">
+    <row r="9" spans="1:13" s="3" customFormat="1">
       <c r="A9" s="13" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="31.5">
       <c r="A10" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="14"/>
       <c r="J10" s="21" t="s">
         <v>19</v>
@@ -1121,20 +1128,20 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="25"/>
       <c r="H11" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="21" t="s">
@@ -1146,20 +1153,22 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="H12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="14"/>
       <c r="J12" s="21" t="s">
         <v>19</v>
       </c>
@@ -1167,99 +1176,95 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="63">
+    <row r="13" spans="1:13" s="3" customFormat="1">
       <c r="A13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="63">
       <c r="A14" s="13" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="25"/>
       <c r="H14" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="J14" s="21"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" s="3" customFormat="1">
       <c r="A15" s="13" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="20"/>
+        <v>53</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="18"/>
+        <v>51</v>
+      </c>
+      <c r="I15" s="13"/>
       <c r="J15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
       <c r="H16" s="16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="21" t="s">
@@ -1271,22 +1276,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
       <c r="H17" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="21" t="s">
@@ -1298,76 +1303,103 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13" ht="56.25" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="1:13" ht="56.25" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1394,7 +1426,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1403,211 +1435,211 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>88</v>
       </c>
-      <c r="B6" t="s">
-        <v>89</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3130,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3144,27 +3176,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>19</v>

--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BFB3F3-D844-4CB6-AA8D-A42F00D9AF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EADB3-46CF-438A-9F9F-F00E999A2D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
   <si>
     <t>type</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>barcode</t>
+  </si>
+  <si>
+    <t>. = ${d_code_id}</t>
+  </si>
+  <si>
+    <t>The repeated code must be the same</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1055,7 +1061,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="31.5">
       <c r="A8" s="13" t="s">
         <v>119</v>
       </c>
@@ -1067,8 +1073,12 @@
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="17"/>
+      <c r="F8" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>121</v>
+      </c>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">

--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536EADB3-46CF-438A-9F9F-F00E999A2D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF63A48-A065-4A00-A270-872CB98F9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>type</t>
   </si>
@@ -380,28 +380,13 @@
     <t>English</t>
   </si>
   <si>
-    <t>(Oct 2023) - 3. Nigeria - Pre TAS LF FTS Results Form V2</t>
-  </si>
-  <si>
-    <t>ng_lf_pretas_202309_3_resultat_fts_v2</t>
-  </si>
-  <si>
-    <t>d_code_id2</t>
-  </si>
-  <si>
-    <t>Select the user ID</t>
-  </si>
-  <si>
-    <t>Please capture the unique the barcode</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>. = ${d_code_id}</t>
-  </si>
-  <si>
-    <t>The repeated code must be the same</t>
+    <t>(Oct 2023) - 3. Nigeria - Pre TAS LF FTS Results Form V3</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202309_3_resultat_fts_v3</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
   </si>
 </sst>
 </file>
@@ -846,13 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A8:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1015,119 +1000,117 @@
       <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="23" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="31.5">
       <c r="A7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="23"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="21" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="31.5">
+    <row r="8" spans="1:13" s="3" customFormat="1">
       <c r="A8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>121</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="31.5">
       <c r="A9" s="13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="14"/>
       <c r="J9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="31.5">
+    <row r="10" spans="1:13" s="3" customFormat="1">
       <c r="A10" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="I10" s="14"/>
       <c r="J10" s="21" t="s">
         <v>19</v>
@@ -1138,10 +1121,10 @@
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1">
       <c r="A11" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>40</v>
@@ -1151,7 +1134,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="25"/>
       <c r="H11" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="21" t="s">
@@ -1163,22 +1146,20 @@
     </row>
     <row r="12" spans="1:13" s="3" customFormat="1">
       <c r="A12" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>40</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="14"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J12" s="21" t="s">
         <v>19</v>
       </c>
@@ -1186,38 +1167,38 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="63">
       <c r="A13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+        <v>48</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="20"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="H13" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="63">
+    <row r="14" spans="1:13" s="3" customFormat="1">
       <c r="A14" s="13" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="13"/>
@@ -1227,54 +1208,58 @@
         <v>51</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="25"/>
+        <v>56</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="20"/>
       <c r="H16" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="21" t="s">
@@ -1286,22 +1271,22 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="20"/>
       <c r="H17" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="21" t="s">
@@ -1313,102 +1298,75 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>42</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="20"/>
       <c r="H18" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="21" t="s">
-        <v>19</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:13" ht="56.25" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="1:13" ht="56.25" customHeight="1">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="10" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="7"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1420,11 +1378,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1533,13 +1491,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1547,10 +1505,10 @@
         <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1558,10 +1516,10 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1569,10 +1527,10 @@
         <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1580,10 +1538,10 @@
         <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1591,10 +1549,10 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1602,21 +1560,21 @@
         <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1624,10 +1582,10 @@
         <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1635,26 +1593,33 @@
         <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="3"/>
@@ -1685,7 +1650,6 @@
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
@@ -3156,13 +3120,18 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="7"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="7"/>
     </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="7"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:C53">
-    <sortCondition ref="B9:B53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:C54">
+    <sortCondition ref="B10:B54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
+++ b/LF/PreTAS/Nigeria/sept 2023/ng_lf_pretas_202309_3_resultat_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Nigeria\sept 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF63A48-A065-4A00-A270-872CB98F9B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643C2F6-DDE2-41BE-BD6D-A562A7078885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -225,6 +225,153 @@
     <t>d_final_result</t>
   </si>
   <si>
+    <t>d_display_final_result</t>
+  </si>
+  <si>
+    <t>This participant's final result is: ${d_final_result}</t>
+  </si>
+  <si>
+    <t>notes_part</t>
+  </si>
+  <si>
+    <t>Additional Notes on form</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>c_start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>c_end</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>state_list</t>
+  </si>
+  <si>
+    <t>ui_liste</t>
+  </si>
+  <si>
+    <t>site_liste</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>id_list</t>
+  </si>
+  <si>
+    <t>Scanner</t>
+  </si>
+  <si>
+    <t>Generation automatique</t>
+  </si>
+  <si>
+    <t>Automatic ID generation</t>
+  </si>
+  <si>
+    <t>results_list</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>why_invalid</t>
+  </si>
+  <si>
+    <t>Absence.de.ligne.temoin/controle</t>
+  </si>
+  <si>
+    <t>Absence of control line</t>
+  </si>
+  <si>
+    <t>Ligne.temoin.discontinue/partielle</t>
+  </si>
+  <si>
+    <t>Broken/partial control line</t>
+  </si>
+  <si>
+    <t>Difficulte.d.absorption.d.echantillon</t>
+  </si>
+  <si>
+    <t>Difficulty of absorbing sample</t>
+  </si>
+  <si>
+    <t>Difficulte.de.migration.d.echantillon</t>
+  </si>
+  <si>
+    <t>Difficulty of migrating sample</t>
+  </si>
+  <si>
+    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
+  </si>
+  <si>
+    <t>Trace of blood persists</t>
+  </si>
+  <si>
+    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
+  </si>
+  <si>
+    <t>Insufficient blood volume due to pipette</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other (pleas explain)</t>
+  </si>
+  <si>
+    <t>results_list2</t>
+  </si>
+  <si>
+    <t>Refused/Not Done</t>
+  </si>
+  <si>
+    <t>Refused/Not Don</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow_choice_duplicates </t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>(Oct 2023) - 3. Nigeria - Pre TAS LF FTS Results Form V3</t>
+  </si>
+  <si>
+    <t>ng_lf_pretas_202309_3_resultat_fts_v3</t>
+  </si>
+  <si>
+    <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
+  </si>
+  <si>
     <t>if(${d_result1}="Positive" and ${d_result2}="Positive", "Positive",
  if(${d_result1}="Positive" and ${d_result2}="Negative", "Negative", 
   if(${d_result1}="Positive" and ${d_result2}="Invalid", "Positive", 
@@ -232,7 +379,9 @@
     if(${d_result1}="Invalid" and ${d_result2}="Positive", "Positive", 
      if(${d_result1}="Invalid" and ${d_result2}="Invalid", "Invalid", 
       if(${d_result1}="Invalid" and ${d_result2}="Refused/Not Done", "Invalid", 
-       if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative", "Negative")
+       if(${d_result1}="Refused/Not Done", "Refused/Not Done", 
+         if(${d_result1}="Invalid" and ${d_result2}="Negative", "Negative", "Negative")
+       )
       )
      )
     )
@@ -240,153 +389,6 @@
   )
  )
 )</t>
-  </si>
-  <si>
-    <t>d_display_final_result</t>
-  </si>
-  <si>
-    <t>This participant's final result is: ${d_final_result}</t>
-  </si>
-  <si>
-    <t>notes_part</t>
-  </si>
-  <si>
-    <t>Additional Notes on form</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>c_start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>c_end</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>state_list</t>
-  </si>
-  <si>
-    <t>ui_liste</t>
-  </si>
-  <si>
-    <t>site_liste</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>id_list</t>
-  </si>
-  <si>
-    <t>Scanner</t>
-  </si>
-  <si>
-    <t>Generation automatique</t>
-  </si>
-  <si>
-    <t>Automatic ID generation</t>
-  </si>
-  <si>
-    <t>results_list</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>why_invalid</t>
-  </si>
-  <si>
-    <t>Absence.de.ligne.temoin/controle</t>
-  </si>
-  <si>
-    <t>Absence of control line</t>
-  </si>
-  <si>
-    <t>Ligne.temoin.discontinue/partielle</t>
-  </si>
-  <si>
-    <t>Broken/partial control line</t>
-  </si>
-  <si>
-    <t>Difficulte.d.absorption.d.echantillon</t>
-  </si>
-  <si>
-    <t>Difficulty of absorbing sample</t>
-  </si>
-  <si>
-    <t>Difficulte.de.migration.d.echantillon</t>
-  </si>
-  <si>
-    <t>Difficulty of migrating sample</t>
-  </si>
-  <si>
-    <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
-  </si>
-  <si>
-    <t>Trace of blood persists</t>
-  </si>
-  <si>
-    <t>Insuffisance.du.volume.de.sang.du.a.la.pipette</t>
-  </si>
-  <si>
-    <t>Insufficient blood volume due to pipette</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Other (pleas explain)</t>
-  </si>
-  <si>
-    <t>results_list2</t>
-  </si>
-  <si>
-    <t>Refused/Not Done</t>
-  </si>
-  <si>
-    <t>Refused/Not Don</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow_choice_duplicates </t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>(Oct 2023) - 3. Nigeria - Pre TAS LF FTS Results Form V3</t>
-  </si>
-  <si>
-    <t>ng_lf_pretas_202309_3_resultat_fts_v3</t>
-  </si>
-  <si>
-    <t>Enter unique ID from the diagnostic test (must be entered as 15-123-1 upper case only with dashes)</t>
   </si>
 </sst>
 </file>
@@ -833,11 +835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A8:XFD18"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1031,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="16"/>
@@ -1328,7 +1330,7 @@
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="10" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1336,10 +1338,10 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>69</v>
       </c>
       <c r="H20" s="7"/>
     </row>
@@ -1348,26 +1350,26 @@
         <v>42</v>
       </c>
       <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:A9"/>
     </sheetView>
@@ -1394,7 +1396,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1403,222 +1405,222 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
       <c r="C2" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
         <v>87</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3155,27 +3157,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>115</v>
-      </c>
       <c r="C2" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>19</v>
